--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H2">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I2">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J2">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N2">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O2">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P2">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q2">
-        <v>22.50384159804667</v>
+        <v>15.81523880107378</v>
       </c>
       <c r="R2">
-        <v>202.53457438242</v>
+        <v>142.337149209664</v>
       </c>
       <c r="S2">
-        <v>0.0095048325833795</v>
+        <v>0.005090713822842601</v>
       </c>
       <c r="T2">
-        <v>0.0105498187785194</v>
+        <v>0.006176468093793754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H3">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I3">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J3">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P3">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q3">
-        <v>264.4543207172254</v>
+        <v>240.0183061782087</v>
       </c>
       <c r="R3">
-        <v>2380.088886455028</v>
+        <v>2160.164755603878</v>
       </c>
       <c r="S3">
-        <v>0.1116962201061154</v>
+        <v>0.0772586822346126</v>
       </c>
       <c r="T3">
-        <v>0.1239763951682517</v>
+        <v>0.093736517588054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H4">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I4">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J4">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N4">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O4">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P4">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q4">
-        <v>573.0710569993112</v>
+        <v>721.3409636703925</v>
       </c>
       <c r="R4">
-        <v>5157.6395129938</v>
+        <v>6492.068673033533</v>
       </c>
       <c r="S4">
-        <v>0.2420450940088192</v>
+        <v>0.2321900074306907</v>
       </c>
       <c r="T4">
-        <v>0.2686561657580306</v>
+        <v>0.2817118035899732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H5">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I5">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J5">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N5">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O5">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P5">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q5">
-        <v>223.9048782689786</v>
+        <v>224.47968228421</v>
       </c>
       <c r="R5">
-        <v>1343.429269613872</v>
+        <v>1346.87809370526</v>
       </c>
       <c r="S5">
-        <v>0.09456955930285851</v>
+        <v>0.0722570070503112</v>
       </c>
       <c r="T5">
-        <v>0.06997785627171038</v>
+        <v>0.05844538560868884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H6">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I6">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J6">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N6">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O6">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P6">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q6">
-        <v>700.38114210106</v>
+        <v>505.6743566942716</v>
       </c>
       <c r="R6">
-        <v>6303.430278909541</v>
+        <v>4551.069210248445</v>
       </c>
       <c r="S6">
-        <v>0.2958164041113998</v>
+        <v>0.1627698114369155</v>
       </c>
       <c r="T6">
-        <v>0.3283392345642879</v>
+        <v>0.1974855750998711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.144039</v>
       </c>
       <c r="I7">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J7">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N7">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O7">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P7">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q7">
-        <v>1.292616099311667</v>
+        <v>1.000909826072889</v>
       </c>
       <c r="R7">
-        <v>11.633544893805</v>
+        <v>9.008188434656001</v>
       </c>
       <c r="S7">
-        <v>0.000545955656726844</v>
+        <v>0.0003221794846791873</v>
       </c>
       <c r="T7">
-        <v>0.0006059794519313713</v>
+        <v>0.0003908943572248887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.144039</v>
       </c>
       <c r="I8">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J8">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P8">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q8">
         <v>15.19020257062633</v>
@@ -948,10 +948,10 @@
         <v>136.711823135637</v>
       </c>
       <c r="S8">
-        <v>0.006415808239334407</v>
+        <v>0.004889523020848501</v>
       </c>
       <c r="T8">
-        <v>0.007121179005411118</v>
+        <v>0.005932367047746846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.144039</v>
       </c>
       <c r="I9">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J9">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N9">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O9">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P9">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q9">
-        <v>32.91708533849445</v>
+        <v>45.65199852926423</v>
       </c>
       <c r="R9">
-        <v>296.25376804645</v>
+        <v>410.867986763378</v>
       </c>
       <c r="S9">
-        <v>0.01390302113139486</v>
+        <v>0.01469476767796491</v>
       </c>
       <c r="T9">
-        <v>0.01543155569795324</v>
+        <v>0.0178288874344898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.144039</v>
       </c>
       <c r="I10">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J10">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N10">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O10">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P10">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q10">
-        <v>12.86105081676467</v>
+        <v>14.206799061215</v>
       </c>
       <c r="R10">
-        <v>77.166304900588</v>
+        <v>85.24079436729001</v>
       </c>
       <c r="S10">
-        <v>0.005432056314789156</v>
+        <v>0.004572978585335311</v>
       </c>
       <c r="T10">
-        <v>0.004019513878020816</v>
+        <v>0.00369887306035391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.144039</v>
       </c>
       <c r="I11">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J11">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N11">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O11">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P11">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q11">
-        <v>40.229750817865</v>
+        <v>32.00295858789178</v>
       </c>
       <c r="R11">
-        <v>362.067757360785</v>
+        <v>288.026627291026</v>
       </c>
       <c r="S11">
-        <v>0.0169916342829249</v>
+        <v>0.01030132429262963</v>
       </c>
       <c r="T11">
-        <v>0.01885973907096411</v>
+        <v>0.0124984045521776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H12">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I12">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J12">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N12">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O12">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P12">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q12">
-        <v>5.350012079017501</v>
+        <v>11.914883435696</v>
       </c>
       <c r="R12">
-        <v>32.100072474105</v>
+        <v>71.489300614176</v>
       </c>
       <c r="S12">
-        <v>0.002259657263786166</v>
+        <v>0.003835241602519322</v>
       </c>
       <c r="T12">
-        <v>0.001672059935503739</v>
+        <v>0.003102151383126823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H13">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I13">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J13">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P13">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q13">
-        <v>62.8707682651095</v>
+        <v>180.8249737179045</v>
       </c>
       <c r="R13">
-        <v>377.224609590657</v>
+        <v>1084.949842307427</v>
       </c>
       <c r="S13">
-        <v>0.02655440512877517</v>
+        <v>0.05820514029534521</v>
       </c>
       <c r="T13">
-        <v>0.01964924399754531</v>
+        <v>0.04707947378170062</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H14">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I14">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J14">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N14">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O14">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P14">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q14">
-        <v>136.240608685575</v>
+        <v>543.443801742773</v>
       </c>
       <c r="R14">
-        <v>817.44365211345</v>
+        <v>3260.662810456638</v>
       </c>
       <c r="S14">
-        <v>0.05754324971459585</v>
+        <v>0.1749272905877485</v>
       </c>
       <c r="T14">
-        <v>0.04257980356067295</v>
+        <v>0.1414906784717164</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H15">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I15">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J15">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N15">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O15">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P15">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q15">
-        <v>53.23063611476699</v>
+        <v>169.1184864003975</v>
       </c>
       <c r="R15">
-        <v>212.922544459068</v>
+        <v>676.47394560159</v>
       </c>
       <c r="S15">
-        <v>0.02248275177254941</v>
+        <v>0.05443697861573033</v>
       </c>
       <c r="T15">
-        <v>0.01109091751249847</v>
+        <v>0.02935438685185716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H16">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I16">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J16">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N16">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O16">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P16">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q16">
-        <v>166.5070185386475</v>
+        <v>380.9649093647411</v>
       </c>
       <c r="R16">
-        <v>999.042111231885</v>
+        <v>2285.789456188446</v>
       </c>
       <c r="S16">
-        <v>0.07032671858590056</v>
+        <v>0.1226275084755211</v>
       </c>
       <c r="T16">
-        <v>0.05203908151358402</v>
+        <v>0.09918777862047808</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H17">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I17">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J17">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N17">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O17">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P17">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q17">
-        <v>0.7140434582383334</v>
+        <v>0.04664416374044444</v>
       </c>
       <c r="R17">
-        <v>6.426391124145</v>
+        <v>0.419797473664</v>
       </c>
       <c r="S17">
-        <v>0.0003015868867652263</v>
+        <v>1.501413238807955E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003347441391986853</v>
+        <v>1.821636667825631E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H18">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I18">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J18">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P18">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q18">
-        <v>8.391095222043665</v>
+        <v>0.7078902389586667</v>
       </c>
       <c r="R18">
-        <v>75.519856998393</v>
+        <v>6.371012150628</v>
       </c>
       <c r="S18">
-        <v>0.00354410401127439</v>
+        <v>0.0002278603990650817</v>
       </c>
       <c r="T18">
-        <v>0.003933752091178271</v>
+        <v>0.0002764587705459993</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H19">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I19">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J19">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N19">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O19">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P19">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q19">
-        <v>18.18345714767222</v>
+        <v>2.127463672559111</v>
       </c>
       <c r="R19">
-        <v>163.65111432905</v>
+        <v>19.147173053032</v>
       </c>
       <c r="S19">
-        <v>0.007680053879808745</v>
+        <v>0.0006848020988944425</v>
       </c>
       <c r="T19">
-        <v>0.00852441912369158</v>
+        <v>0.0008308576088888696</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H20">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I20">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J20">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N20">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O20">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P20">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q20">
-        <v>7.104467603855332</v>
+        <v>0.6620619004599999</v>
       </c>
       <c r="R20">
-        <v>42.62680562313199</v>
+        <v>3.97237140276</v>
       </c>
       <c r="S20">
-        <v>0.003000677678719066</v>
+        <v>0.0002131088699097185</v>
       </c>
       <c r="T20">
-        <v>0.002220386695962803</v>
+        <v>0.0001723740103133951</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H21">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I21">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J21">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N21">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O21">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P21">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q21">
-        <v>22.222986711485</v>
+        <v>1.491394331104889</v>
       </c>
       <c r="R21">
-        <v>200.006880403365</v>
+        <v>13.422548979944</v>
       </c>
       <c r="S21">
-        <v>0.009386209340082921</v>
+        <v>0.0004800598860479599</v>
       </c>
       <c r="T21">
-        <v>0.01041815378508359</v>
+        <v>0.000582447702320423</v>
       </c>
     </row>
   </sheetData>
